--- a/file1.xlsx
+++ b/file1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71DB3190-46F3-4443-A7F0-9D65A9EB129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8229CBC8-481F-421E-8BE3-E56823387A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54495" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{E9E60A1F-AAFA-4F5F-9541-28BB30A2D35B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{E9E60A1F-AAFA-4F5F-9541-28BB30A2D35B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$143</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="525">
   <si>
     <t>Service</t>
   </si>
@@ -1390,6 +1391,374 @@
   </si>
   <si>
     <t>AL/ML</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>AutoGen</t>
+  </si>
+  <si>
+    <t>Crew AI</t>
+  </si>
+  <si>
+    <t>Core Architecture</t>
+  </si>
+  <si>
+    <t>Architecture Pros</t>
+  </si>
+  <si>
+    <t>Architecture Cons</t>
+  </si>
+  <si>
+    <t>Development Experience</t>
+  </si>
+  <si>
+    <t>Development Pros</t>
+  </si>
+  <si>
+    <t>Development Cons</t>
+  </si>
+  <si>
+    <t>LLM Integration</t>
+  </si>
+  <si>
+    <t>LLM Integration Pros</t>
+  </si>
+  <si>
+    <t>LLM Integration Cons</t>
+  </si>
+  <si>
+    <t>Tool Integration</t>
+  </si>
+  <si>
+    <t>Tool Integration Pros</t>
+  </si>
+  <si>
+    <t>Tool Integration Cons</t>
+  </si>
+  <si>
+    <t>Memory &amp; Knowledge</t>
+  </si>
+  <si>
+    <t>Memory &amp; Knowledge Pros</t>
+  </si>
+  <si>
+    <t>Memory &amp; Knowledge Cons</t>
+  </si>
+  <si>
+    <t>Community &amp; Ecosystem</t>
+  </si>
+  <si>
+    <t>Ecosystem Pros</t>
+  </si>
+  <si>
+    <t>Ecosystem Cons</t>
+  </si>
+  <si>
+    <t>Performance &amp; Scaling</t>
+  </si>
+  <si>
+    <t>Performance Pros</t>
+  </si>
+  <si>
+    <t>Performance Cons</t>
+  </si>
+  <si>
+    <t>Ideal Use Cases</t>
+  </si>
+  <si>
+    <t>Less Suited For</t>
+  </si>
+  <si>
+    <t>Implementation Details</t>
+  </si>
+  <si>
+    <t>• Multi-agent conversational framework
+• Flexible agent-to-agent messaging
+• Support for diverse conversation patterns
+• Dynamic agent creation and management
+• Microsoft-backed research project</t>
+  </si>
+  <si>
+    <t>• Task-oriented multi-agent framework
+• Built-in task planning and delegation
+• Role-based agent assignment
+• Process-driven execution model
+• Goal achievement focused design</t>
+  </si>
+  <si>
+    <t>• Highly customizable agent interactions
+• Supports complex conversation flows
+• Strong theoretical research foundation
+• Rich agent memory and context handling</t>
+  </si>
+  <si>
+    <t>• Clearer path from goals to execution
+• More intuitive task breakdown
+• Better suited for business automation
+• Easier to visualize progress</t>
+  </si>
+  <si>
+    <t>• Complex setup for basic use cases
+• Requires deep understanding of agent patterns
+• Less intuitive for structured workflows</t>
+  </si>
+  <si>
+    <t>• Less flexible for open-ended exploration
+• More constrained agent interactions
+• Newer project with evolving architecture</t>
+  </si>
+  <si>
+    <t>• Comprehensive Python API
+• Extensive customization options
+• Support for custom agent classes
+• Advanced conversation management
+• Robust error handling mechanisms</t>
+  </si>
+  <si>
+    <t>• Streamlined Python API
+• Task-centric design patterns
+• Built-in process templates
+• Simpler agent configuration
+• Focus on practical applications</t>
+  </si>
+  <si>
+    <t>• Greater control over agent behavior
+• More options for advanced developers
+• Better suited for research applications
+• More mature codebase with examples</t>
+  </si>
+  <si>
+    <t>• Faster development for common use cases
+• More intuitive for business developers
+• Less configuration required
+• Better alignment with traditional workflows</t>
+  </si>
+  <si>
+    <t>• Steeper learning curve
+• More boilerplate code required
+• Documentation can be academic
+• Setup process more involved</t>
+  </si>
+  <si>
+    <t>• Less flexibility for custom behaviors
+• Fewer advanced customization options
+• Less comprehensive documentation
+• Smaller collection of examples</t>
+  </si>
+  <si>
+    <t>• Support for multiple LLM providers
+• Advanced prompt engineering
+• Custom LLM caching mechanisms
+• Sophisticated message formatting
+• Better handling of reasoning chains</t>
+  </si>
+  <si>
+    <t>• Simplified LLM integration
+• Automatic prompt construction
+• Role-specific prompting templates
+• Goal-oriented query formatting
+• Task-aware context management</t>
+  </si>
+  <si>
+    <t>• More control over LLM interactions
+• Superior token optimization
+• Better context window management
+• More options for model switching</t>
+  </si>
+  <si>
+    <t>• Easier setup for common LLM tasks
+• Automatic task-related prompting
+• Better goal-query alignment
+• More intuitive role-based prompting</t>
+  </si>
+  <si>
+    <t>• More configuration for basic LLM tasks
+• Less automated prompt management</t>
+  </si>
+  <si>
+    <t>• Less granular control over prompts
+• Fewer options for advanced optimizations</t>
+  </si>
+  <si>
+    <t>• Code generation and execution framework
+• Advanced reasoning capabilities
+• Flexible tool integration system
+• Support for external APIs
+• Human-in-the-loop capabilities</t>
+  </si>
+  <si>
+    <t>• Task-oriented tool integration
+• Built-in task delegation system
+• Role-specific tool assignment
+• Process-aware tool selection
+• Structured approach to tool usage</t>
+  </si>
+  <si>
+    <t>• Superior for code-heavy applications
+• Better for mathematical/scientific tasks
+• Robust error handling in tool usage
+• Stronger interactive debugging</t>
+  </si>
+  <si>
+    <t>• Better alignment between tasks and tools
+• Clearer mapping of capabilities to goals
+• More intuitive tool assignment
+• Better for business process automation</t>
+  </si>
+  <si>
+    <t>• Tool management less structured
+• More manual work for complex tool chains</t>
+  </si>
+  <si>
+    <t>• Less flexible for exploratory tool usage
+• Fewer options for tool customization</t>
+  </si>
+  <si>
+    <t>• Sophisticated agent memory systems
+• Support for diverse knowledge sources
+• Long-term context management
+• Advanced reasoning over information
+• Better support for knowledge graphs</t>
+  </si>
+  <si>
+    <t>• Task-relevant memory management
+• Goal-oriented knowledge retrieval
+• Process-aware context handling
+• Simpler knowledge integration
+• Focus on actionable information</t>
+  </si>
+  <si>
+    <t>• Superior handling of complex knowledge
+• Better for research applications
+• Flexible knowledge integration
+• Better for long-running applications</t>
+  </si>
+  <si>
+    <t>• Straightforward knowledge utilization
+• Better goal-information alignment
+• Clearer task-specific knowledge
+• Easier for business applications</t>
+  </si>
+  <si>
+    <t>• Complex knowledge management setup
+• Less intuitive memory structures</t>
+  </si>
+  <si>
+    <t>• Less sophisticated for complex knowledge
+• Limited support for exploratory tasks</t>
+  </si>
+  <si>
+    <t>• Larger GitHub presence (15K+ stars)
+• Microsoft Research backing
+• Academic papers and research
+• Extensive community examples
+• Regular academic presentations</t>
+  </si>
+  <si>
+    <t>• Growing GitHub presence (3K+ stars)
+• Business-oriented community
+• Practical application focus
+• Industry-oriented examples
+• Faster development pace</t>
+  </si>
+  <si>
+    <t>• More mature ecosystem
+• Better theoretical foundations
+• More diverse documented use cases
+• Stronger research orientation</t>
+  </si>
+  <si>
+    <t>• Focused on practical business cases
+• Simpler examples for common applications
+• More approachable for business developers
+• Rapid iteration and feature development</t>
+  </si>
+  <si>
+    <t>• Less business-focused community
+• Examples can be research-heavy</t>
+  </si>
+  <si>
+    <t>• Smaller community
+• Fewer comprehensive examples
+• Less academic validation</t>
+  </si>
+  <si>
+    <t>• Advanced caching mechanisms
+• Better token optimization
+• Support for complex reasoning chains
+• Sophisticated parallelization
+• Better large context window handling</t>
+  </si>
+  <si>
+    <t>• Task-based resource allocation
+• Process-aware parallelization
+• Simpler caching mechanisms
+• Predictable resource usage
+• Better task prioritization</t>
+  </si>
+  <si>
+    <t>• More efficient for complex reasoning
+• Better for code generation
+• Superior for large knowledge bases
+• More performance tuning options</t>
+  </si>
+  <si>
+    <t>• More predictable scaling behavior
+• Better resource utilization for workflows
+• Easier performance monitoring
+• More intuitive resource allocation</t>
+  </si>
+  <si>
+    <t>• Can be more resource-intensive
+• Requires more manual optimization</t>
+  </si>
+  <si>
+    <t>• Less flexible performance tuning
+• Fewer advanced optimization options</t>
+  </si>
+  <si>
+    <t>• Research projects
+• Complex reasoning problems
+• Code generation
+• Scientific applications
+• Exploratory AI development
+• Flexible agent interaction needs</t>
+  </si>
+  <si>
+    <t>• Business process automation
+• Task-oriented workflows
+• Project management applications
+• Customer service automation
+• Structured decision-making
+• Clear goals and outcomes</t>
+  </si>
+  <si>
+    <t>• Simple business workflows
+• Structured task execution
+• Process automation with clear steps
+• Minimal setup applications</t>
+  </si>
+  <si>
+    <t>• Open-ended research
+• Complex reasoning chains
+• Highly customized agent behaviors
+• Novel interaction patterns</t>
+  </si>
+  <si>
+    <t>• Setup complexity: High
+• Learning curve: Steep
+• Development time: Longer for simple apps
+• Maintenance: More involved
+• Documentation: Comprehensive but academic</t>
+  </si>
+  <si>
+    <t>• Setup complexity: Medium
+• Learning curve: Moderate
+• Development time: Shorter for common cases
+• Maintenance: Simpler
+• Documentation: Growing and practical</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1790,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1429,16 +1798,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1777,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3F9EA9-2338-4252-92AA-F8D122A9F1FE}">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4043,7 +4436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514A3484-7D0F-4D1A-A98D-8BF01041FD33}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -6492,4 +6885,299 @@
   <autoFilter ref="A1:E143" xr:uid="{514A3484-7D0F-4D1A-A98D-8BF01041FD33}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AE42CA-D35C-45E7-8E09-1288CBA8C257}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="59.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>